--- a/examples/sources/data/unsolved/to_schedule/2019-01-17.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-01-17.xlsx
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -4666,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92" s="2">
         <v>43482</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95">
         <v>1</v>
